--- a/spring_2018/MCR_bins_across_pathways.xlsx
+++ b/spring_2018/MCR_bins_across_pathways.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dgalambos/Documents/GitHub/meta-omics/spring_2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2E15E3-2CAE-2949-BC9A-197AC9D22442}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1ABBAD-1790-0C47-BE4F-74FA0E272B75}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>PTS system, glucose-specific II component</t>
   </si>
@@ -458,6 +458,9 @@
   </si>
   <si>
     <t>Pseudomonadales_4</t>
+  </si>
+  <si>
+    <t>MAG</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1304,7 @@
   <dimension ref="A1:BV74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1310,6 +1313,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
